--- a/石田関係/クモ仕様書(β用12月02日).xlsx
+++ b/石田関係/クモ仕様書(β用12月02日).xlsx
@@ -9353,10 +9353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50m</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -9556,6 +9552,10 @@
   </si>
   <si>
     <t>TimeUp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100m</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9987,6 +9987,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10029,7 +10030,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -27030,10 +27030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27139,10 +27139,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27223,10 +27223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27329,10 +27329,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -27422,10 +27422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -27449,140 +27449,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27613,10 +27613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -27718,10 +27718,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -27805,10 +27805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -27882,11 +27882,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -27977,10 +27977,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -28089,89 +28089,89 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -28197,10 +28197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -28362,8 +28362,8 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -28795,8 +28795,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -29203,17 +29203,17 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>360</v>
+      <c r="E2" s="44" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
@@ -29221,7 +29221,7 @@
         <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
@@ -29229,62 +29229,62 @@
         <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -29311,10 +29311,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29346,10 +29346,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29436,10 +29436,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29616,10 +29616,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">

--- a/石田関係/クモ仕様書(β用12月02日).xlsx
+++ b/石田関係/クモ仕様書(β用12月02日).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="369">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -6786,31 +6786,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ただし、糸から糸に跳んだ場合のみ条件があっていても巣は生成されない</t>
-    <rPh sb="5" eb="6">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8881,6 +8856,396 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字リソース</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameStart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NowLoading</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>back音</t>
+    <rPh sb="4" eb="5">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木に着地</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリングの糸に乗った時の音</t>
+    <rPh sb="6" eb="7">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリングジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体当たり</t>
+    <rPh sb="0" eb="2">
+      <t>タイア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避成功音</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗&amp;引っかかった</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下して地面に落ちた</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余裕があれば蝶</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>winリザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loseリザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TimeUp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・陣地木の差が3本以上(5:2や6:1)のAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で切り替え</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ボン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20秒に1回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ごとに現在の陣地の状況が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かを判断し、それによって強さを変えていく</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8950,6 +9315,8 @@
       </rPr>
       <t>だった場合は白い木を選択
 2つとも同じ色だった場合、その2つのうちどちらかをランダムで選択
+AIが木の上で移動する時、移動速度は基準値1~1.5のランダムで変わる(要調整)
+この時の幅で速度が1.1までがギリギリ網を発生させる幅の条件の1つ
 ステージ全体を見て、</t>
     </r>
     <r>
@@ -9197,365 +9564,194 @@
     <rPh sb="85" eb="87">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="136" eb="137">
+    <rPh sb="112" eb="113">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
       <t>シロ</t>
     </rPh>
-    <rPh sb="138" eb="139">
+    <rPh sb="214" eb="215">
       <t>キ</t>
     </rPh>
-    <rPh sb="168" eb="169">
+    <rPh sb="244" eb="245">
       <t>シロ</t>
     </rPh>
-    <rPh sb="170" eb="171">
+    <rPh sb="246" eb="247">
       <t>キ</t>
     </rPh>
-    <rPh sb="174" eb="175">
+    <rPh sb="250" eb="251">
       <t>アオ</t>
     </rPh>
-    <rPh sb="189" eb="191">
+    <rPh sb="265" eb="267">
       <t>ゼンタイ</t>
     </rPh>
-    <rPh sb="192" eb="194">
+    <rPh sb="268" eb="270">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="196" eb="197">
+    <rPh sb="272" eb="273">
       <t>モット</t>
     </rPh>
-    <rPh sb="198" eb="199">
+    <rPh sb="274" eb="275">
       <t>チカ</t>
     </rPh>
-    <rPh sb="201" eb="202">
+    <rPh sb="277" eb="278">
       <t>アオ</t>
     </rPh>
-    <rPh sb="203" eb="204">
+    <rPh sb="279" eb="280">
       <t>キ</t>
     </rPh>
-    <rPh sb="207" eb="208">
+    <rPh sb="283" eb="284">
       <t>シロ</t>
     </rPh>
-    <rPh sb="209" eb="210">
+    <rPh sb="285" eb="286">
       <t>キ</t>
     </rPh>
-    <rPh sb="211" eb="213">
+    <rPh sb="287" eb="289">
       <t>センタク</t>
     </rPh>
-    <rPh sb="256" eb="259">
+    <rPh sb="332" eb="335">
       <t>ハンイナイ</t>
     </rPh>
-    <rPh sb="262" eb="264">
+    <rPh sb="338" eb="340">
       <t>イチバン</t>
     </rPh>
-    <rPh sb="264" eb="265">
+    <rPh sb="340" eb="341">
       <t>チカ</t>
     </rPh>
-    <rPh sb="266" eb="267">
+    <rPh sb="342" eb="343">
       <t>アカ</t>
     </rPh>
-    <rPh sb="268" eb="269">
+    <rPh sb="344" eb="345">
       <t>イト</t>
     </rPh>
-    <rPh sb="270" eb="272">
+    <rPh sb="346" eb="348">
       <t>センタク</t>
     </rPh>
-    <rPh sb="275" eb="276">
+    <rPh sb="351" eb="352">
       <t>イト</t>
     </rPh>
-    <rPh sb="277" eb="278">
+    <rPh sb="353" eb="354">
       <t>ト</t>
     </rPh>
-    <rPh sb="284" eb="287">
+    <rPh sb="360" eb="363">
       <t>ハンイナイ</t>
     </rPh>
-    <rPh sb="288" eb="290">
+    <rPh sb="364" eb="366">
       <t>イチバン</t>
     </rPh>
-    <rPh sb="290" eb="291">
+    <rPh sb="366" eb="367">
       <t>トオ</t>
     </rPh>
-    <rPh sb="292" eb="294">
+    <rPh sb="368" eb="370">
       <t>チャクチ</t>
     </rPh>
-    <rPh sb="294" eb="296">
+    <rPh sb="370" eb="372">
       <t>チテン</t>
     </rPh>
-    <rPh sb="297" eb="298">
+    <rPh sb="373" eb="374">
       <t>ト</t>
     </rPh>
-    <rPh sb="300" eb="301">
+    <rPh sb="376" eb="377">
       <t>イト</t>
     </rPh>
-    <rPh sb="347" eb="349">
+    <rPh sb="423" eb="425">
       <t>ジンチ</t>
     </rPh>
-    <rPh sb="358" eb="359">
+    <rPh sb="434" eb="435">
       <t>カイ</t>
     </rPh>
-    <rPh sb="360" eb="361">
+    <rPh sb="436" eb="437">
       <t>アイダ</t>
     </rPh>
-    <rPh sb="366" eb="369">
+    <rPh sb="442" eb="445">
       <t>ハンイナイ</t>
     </rPh>
-    <rPh sb="370" eb="371">
+    <rPh sb="446" eb="447">
       <t>アオ</t>
     </rPh>
-    <rPh sb="372" eb="373">
+    <rPh sb="448" eb="449">
       <t>イト</t>
     </rPh>
-    <rPh sb="374" eb="375">
+    <rPh sb="450" eb="451">
       <t>ハイ</t>
     </rPh>
-    <rPh sb="381" eb="382">
+    <rPh sb="457" eb="458">
       <t>アオ</t>
     </rPh>
-    <rPh sb="383" eb="384">
+    <rPh sb="459" eb="460">
       <t>イト</t>
     </rPh>
-    <rPh sb="385" eb="387">
+    <rPh sb="461" eb="463">
       <t>センタク</t>
     </rPh>
-    <rPh sb="391" eb="393">
+    <rPh sb="467" eb="469">
       <t>チテン</t>
     </rPh>
-    <rPh sb="394" eb="395">
+    <rPh sb="470" eb="471">
       <t>ム</t>
     </rPh>
-    <rPh sb="398" eb="400">
+    <rPh sb="474" eb="476">
       <t>ジンチ</t>
     </rPh>
-    <rPh sb="407" eb="408">
+    <rPh sb="483" eb="484">
       <t>ウバ</t>
     </rPh>
-    <rPh sb="413" eb="414">
+    <rPh sb="489" eb="490">
       <t>トキ</t>
     </rPh>
-    <rPh sb="415" eb="417">
+    <rPh sb="491" eb="493">
       <t>セイコウ</t>
     </rPh>
-    <rPh sb="417" eb="419">
+    <rPh sb="493" eb="495">
       <t>カクリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルロゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字リソース</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GameStart</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>25m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ready</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Go</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NowLoading</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lose</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタート画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム中</t>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決定音</t>
-    <rPh sb="0" eb="2">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>back音</t>
+    <t>プレイヤーの大きさはスケール1：1：1で10cmとする</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・糸から糸に跳んだ場合でも35度以下であればどんな場合でも糸は貼られる</t>
+    <rPh sb="1" eb="2">
+      <t>イト</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木に着地</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チャクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スプリングの糸に乗った時の音</t>
+      <t>イト</t>
+    </rPh>
     <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
       <t>イト</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スプリングジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体当たり</t>
-    <rPh sb="0" eb="2">
-      <t>タイア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回避</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回避成功音</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>失敗&amp;引っかかった</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落下して地面に落ちた</t>
-    <rPh sb="0" eb="2">
-      <t>ラッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岩</t>
-    <rPh sb="0" eb="1">
-      <t>イワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リソース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>余裕があれば蝶</t>
-    <rPh sb="0" eb="2">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>winリザルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loseリザルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Win</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TimeUp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100m</t>
+    <rPh sb="31" eb="32">
+      <t>ハ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9563,7 +9759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9726,6 +9922,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -9886,7 +10090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10030,6 +10234,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -18592,16 +18798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>141263</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>150788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>73061</xdr:rowOff>
+      <xdr:rowOff>215472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18610,8 +18816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="455588"/>
-          <a:ext cx="3181350" cy="1122423"/>
+          <a:off x="3067050" y="941363"/>
+          <a:ext cx="3181350" cy="779059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18733,37 +18939,22 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>（長押し</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>糸通過）</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30543</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134204</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354393</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>677315</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>14644</xdr:rowOff>
+      <xdr:rowOff>205144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18772,8 +18963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8945943" y="2115404"/>
-          <a:ext cx="646772" cy="356690"/>
+          <a:off x="3783393" y="2305904"/>
+          <a:ext cx="426657" cy="356690"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18908,28 +19099,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>582597</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630222</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>175281</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直線コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="16" idx="7"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9497997" y="1581150"/>
-          <a:ext cx="398478" cy="575331"/>
+          <a:off x="4059222" y="1628775"/>
+          <a:ext cx="284178" cy="670581"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19895,16 +20084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19913,7 +20102,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9534525" y="2381250"/>
+          <a:off x="9601200" y="2324100"/>
           <a:ext cx="838200" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -26894,7 +27083,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27021,7 +27210,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27130,7 +27319,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27213,8 +27402,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27319,8 +27508,8 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27391,7 +27580,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -27413,7 +27602,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27604,7 +27793,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27620,7 +27809,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -27671,7 +27860,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -27686,12 +27875,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -27709,7 +27898,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27719,63 +27908,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -27796,7 +27985,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27806,53 +27995,53 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A1" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="58"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -27872,8 +28061,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A76" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -27968,7 +28157,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B43"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -28088,90 +28277,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -28188,7 +28377,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -28363,7 +28552,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -28414,7 +28603,7 @@
         <v>154</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -28424,18 +28613,18 @@
     </row>
     <row r="11" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -28514,25 +28703,25 @@
         <v>236</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -28611,16 +28800,16 @@
     <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="35" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -28639,7 +28828,7 @@
   <dimension ref="B4:O34"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28649,137 +28838,137 @@
   <sheetData>
     <row r="4" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
+        <v>307</v>
+      </c>
+      <c r="O21" t="s">
         <v>308</v>
-      </c>
-      <c r="O21" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -28795,8 +28984,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -28826,7 +29015,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>167</v>
@@ -28839,7 +29028,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28870,7 +29059,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>216</v>
@@ -28913,25 +29102,25 @@
         <v>236</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -29010,16 +29199,16 @@
     <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -29040,7 +29229,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -29050,7 +29239,7 @@
   <sheetData>
     <row r="1" spans="1:2" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A1" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
@@ -29066,28 +29255,28 @@
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="C30" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>114</v>
@@ -29096,7 +29285,7 @@
     </row>
     <row r="31" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N31" s="5"/>
     </row>
@@ -29114,77 +29303,77 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -29210,81 +29399,81 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -29302,7 +29491,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29339,8 +29528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29430,14 +29619,14 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="46"/>
     </row>
@@ -29510,7 +29699,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29548,7 +29737,7 @@
         <v>200</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -29583,7 +29772,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29604,10 +29793,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -29631,180 +29820,206 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="59"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="59"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="59"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="59"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
+    <row r="26" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
+    <row r="28" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -29815,10 +30030,10 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
-    <hyperlink ref="P21" location="糸!A1" display="糸"/>
-    <hyperlink ref="L17" location="木!A1" display="木"/>
-    <hyperlink ref="G9" location="カメラ!A1" display="カメラ"/>
-    <hyperlink ref="G22" location="カメラ!A1" display="カメラ"/>
+    <hyperlink ref="P27" location="糸!A1" display="糸"/>
+    <hyperlink ref="L23" location="木!A1" display="木"/>
+    <hyperlink ref="G15" location="カメラ!A1" display="カメラ"/>
+    <hyperlink ref="G28" location="カメラ!A1" display="カメラ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/石田関係/クモ仕様書(β用12月02日).xlsx
+++ b/石田関係/クモ仕様書(β用12月02日).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="10" activeTab="12"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -10192,6 +10192,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10234,8 +10236,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -27219,10 +27219,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27328,10 +27328,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27412,10 +27412,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27508,7 +27508,7 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -27518,10 +27518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -27611,10 +27611,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -27638,140 +27638,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27802,10 +27802,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -27907,10 +27907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -27994,10 +27994,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -28071,11 +28071,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -28166,10 +28166,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -28386,10 +28386,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -28984,8 +28984,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -29500,10 +29500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29535,10 +29535,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29625,10 +29625,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29805,10 +29805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -29823,25 +29823,25 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="59"/>
+      <c r="B4" s="45"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="46" t="s">
         <v>367</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="59"/>
+      <c r="B6" s="45"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="59"/>
+      <c r="B7" s="45"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="59"/>
+      <c r="B8" s="45"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
